--- a/data/trans_dic/P19C09-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C09-Provincia-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.00891377391934541</v>
+        <v>0.009106196217510465</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.003742336186657071</v>
+        <v>0.003765254830699997</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02419981207256543</v>
+        <v>0.02431983375285803</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01185791813872096</v>
+        <v>0.01089708885583561</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04750819979937256</v>
+        <v>0.04559473284093761</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02287825200666319</v>
+        <v>0.02352533382549631</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01390654646234057</v>
+        <v>0.01406213324305678</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03103601609781965</v>
+        <v>0.02894264525086296</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02981251685744257</v>
+        <v>0.02820245633532411</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0520240485148399</v>
+        <v>0.0564791459928958</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04799977866027122</v>
+        <v>0.04759448698647488</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0837905572984091</v>
+        <v>0.07650287781048841</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06599618273796688</v>
+        <v>0.07065303306364615</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1193896150557509</v>
+        <v>0.1206747867750941</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.07906978449731999</v>
+        <v>0.08059567951909871</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.0493924557125958</v>
+        <v>0.0487200877171717</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.07283650761078596</v>
+        <v>0.07063598449656626</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.06824220587356125</v>
+        <v>0.06740397569614159</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01812378116788675</v>
+        <v>0.01760117053818848</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.004858783040066798</v>
+        <v>0.004829902561734901</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01292008779457358</v>
+        <v>0.0128347362224135</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02031682018461243</v>
+        <v>0.02001095851624292</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.009860302898463038</v>
+        <v>0.009849900581069737</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.005066562045213188</v>
+        <v>0.005001839055523605</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02181110293189487</v>
+        <v>0.02276442502851925</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.009959222200092474</v>
+        <v>0.009930719079918025</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01079439500121553</v>
+        <v>0.01128514550579235</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05962488213978332</v>
+        <v>0.05581192172221727</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02793245663414226</v>
+        <v>0.02660360620171369</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0501833109291352</v>
+        <v>0.04974095252704043</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05472793319163598</v>
+        <v>0.05585793435660814</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04447336522354889</v>
+        <v>0.04507837998974396</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02983214832374551</v>
+        <v>0.03054929675054171</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04697756412880884</v>
+        <v>0.04976282305712172</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02878553942411362</v>
+        <v>0.02812691624727899</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03456670260892485</v>
+        <v>0.03430532464050742</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.00756004353871675</v>
+        <v>0.007498419713624748</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.003414507815076235</v>
+        <v>0.003428885003771533</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.002694491423408284</v>
+        <v>0.002673356360574383</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0180742089222388</v>
+        <v>0.02064621940551977</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01314570617400934</v>
+        <v>0.01351597842202919</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.003011847522542863</v>
+        <v>0.003002589917998673</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01672453668979614</v>
+        <v>0.01830948926720902</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01166657579425836</v>
+        <v>0.01240506164590218</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.004665074801161359</v>
+        <v>0.004844578027018024</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04343031479771994</v>
+        <v>0.0456669505686882</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03099902595864921</v>
+        <v>0.03121544080196399</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02988044530806561</v>
+        <v>0.03007729071675734</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06539506572487806</v>
+        <v>0.06527992686830197</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05174849488730695</v>
+        <v>0.05363917979437952</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.0349880045261793</v>
+        <v>0.03514999485830795</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.04636714809204219</v>
+        <v>0.04750217139287231</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.035570103467603</v>
+        <v>0.03762544921252736</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02443736027090763</v>
+        <v>0.02584401948783385</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01614028281564358</v>
+        <v>0.01742277617564627</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01590320951279274</v>
+        <v>0.01569535008130115</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04350806016487472</v>
+        <v>0.04122084394330187</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01572512823306648</v>
+        <v>0.01510655874726608</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01948886205592778</v>
+        <v>0.02179137285600369</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03154921562227329</v>
+        <v>0.03391470968548874</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02139576707421591</v>
+        <v>0.02130644476723546</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02289974976162315</v>
+        <v>0.02316950218068591</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04331212815060172</v>
+        <v>0.04475543434726229</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07092001356476364</v>
+        <v>0.07354170594783337</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0634120954493036</v>
+        <v>0.06048473801671882</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1025518433410615</v>
+        <v>0.1039165266079597</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05868027379404447</v>
+        <v>0.05328614180680848</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06715001914249343</v>
+        <v>0.07024511916487254</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.08040932979108663</v>
+        <v>0.08480822271930125</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05375755821846104</v>
+        <v>0.0507579712140326</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05353328501602533</v>
+        <v>0.05411232656366712</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.08170247425814371</v>
+        <v>0.08178834485643985</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01482169066184697</v>
+        <v>0.01416616507207343</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.006415873664932644</v>
+        <v>0.006440105652307898</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0150358258500033</v>
+        <v>0.01487999050276311</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0105508466227996</v>
+        <v>0.01064213200984237</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.005761945705018871</v>
+        <v>0.005835311914737314</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01938094930410926</v>
+        <v>0.01981928030589187</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01615878628448022</v>
+        <v>0.01597151863231921</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.00639825536204672</v>
+        <v>0.008300757171676578</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02197939715620779</v>
+        <v>0.02206666535393816</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0741908056943015</v>
+        <v>0.0737352247914915</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05310254627421773</v>
+        <v>0.05553132173097342</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.08388261889313746</v>
+        <v>0.08171428177826456</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.05720909645189134</v>
+        <v>0.06113732910425997</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.06114634874345618</v>
+        <v>0.06057398846107134</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.09014638206549264</v>
+        <v>0.0928932241378178</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.05309056769927403</v>
+        <v>0.05290762587574092</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.0436221653650237</v>
+        <v>0.04530088446139275</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.07115400437872429</v>
+        <v>0.07197541725094464</v>
       </c>
     </row>
     <row r="19">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.005439043631501902</v>
+        <v>0.00542458705298743</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.003951176788375056</v>
+        <v>0.003983411499195029</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01012160360076801</v>
+        <v>0.009787602696014202</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01535793241610637</v>
+        <v>0.01485852895112394</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.007765521670754332</v>
+        <v>0.007580569399166992</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.01271490869735293</v>
+        <v>0.01084407886017937</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.01336531377193878</v>
+        <v>0.01320394050696043</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.006040614162612403</v>
+        <v>0.007074400731615023</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.05453171046694354</v>
+        <v>0.04968314461897128</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.03947003917685068</v>
+        <v>0.03919505245056089</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.02542134419034687</v>
+        <v>0.02672902867238203</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.06268051815858441</v>
+        <v>0.05952812653152995</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.06403819682794806</v>
+        <v>0.06528917201417636</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.05150272810198733</v>
+        <v>0.04579315804703232</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.04422520663049394</v>
+        <v>0.04492929048091474</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.04223341091770294</v>
+        <v>0.04129606017155949</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.03133147740921107</v>
+        <v>0.03059622954544613</v>
       </c>
     </row>
     <row r="22">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01179800808149853</v>
+        <v>0.01160314157291787</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01313062366552827</v>
+        <v>0.01334260228407289</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01079424580503079</v>
+        <v>0.009784321660502223</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.02876684979740779</v>
+        <v>0.02879778938144142</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01276514109407587</v>
+        <v>0.01182093287669147</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.01636026304490169</v>
+        <v>0.01600110930556249</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.02353179100444657</v>
+        <v>0.02403383733981494</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.01533146781023148</v>
+        <v>0.01570088353548578</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.01719489118542987</v>
+        <v>0.01667501725769845</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.04379973577288433</v>
+        <v>0.03945265157897022</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03822570895647025</v>
+        <v>0.03880014446940253</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.04079794647741049</v>
+        <v>0.03965173486385514</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.0644561689572745</v>
+        <v>0.0652188337045678</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.03697960395335394</v>
+        <v>0.03735288773221233</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.04900573007417797</v>
+        <v>0.04901378743958947</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.04730326596686605</v>
+        <v>0.04849112256346093</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.03385676545422373</v>
+        <v>0.03385484870612389</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.0390561018609258</v>
+        <v>0.03910055423595504</v>
       </c>
     </row>
     <row r="25">
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01067994038991929</v>
+        <v>0.01138670393166671</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.001814541337966097</v>
+        <v>0.003203484633124948</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01099503071105204</v>
+        <v>0.01157651347726937</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.008965502251497406</v>
+        <v>0.007469721059000962</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.005957109269316906</v>
+        <v>0.004649716626699746</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.00759548820787151</v>
+        <v>0.007281408141833943</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.0119702726881532</v>
+        <v>0.01165392686840676</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.005622995675490171</v>
+        <v>0.005478731150658067</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.01116362523335685</v>
+        <v>0.0119763409224279</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.03532118979054041</v>
+        <v>0.03591545811089017</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.02361808700775353</v>
+        <v>0.02512326065005175</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.03576612598798296</v>
+        <v>0.03475388147060417</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.03322078193391628</v>
+        <v>0.03202348613217519</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.02293875118079415</v>
+        <v>0.02163463486284287</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.02858253644399294</v>
+        <v>0.02996579733745625</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.02813779538760307</v>
+        <v>0.02872320410210148</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.01838357810698348</v>
+        <v>0.01789080912955999</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.02595962501834952</v>
+        <v>0.02691543219704758</v>
       </c>
     </row>
     <row r="28">
@@ -1547,31 +1547,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.02032472880889192</v>
+        <v>0.01984794446507648</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.01248727803276262</v>
+        <v>0.01248860075836421</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.02250323392969885</v>
+        <v>0.02298264144565058</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.02568272201931696</v>
+        <v>0.02525257214440569</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.02247442753982996</v>
+        <v>0.02274187612293413</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.02140197880839943</v>
+        <v>0.02114724741871473</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.02484214043558011</v>
+        <v>0.02463157344782127</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.01891296821270371</v>
+        <v>0.01889018062068277</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.02360114880291445</v>
+        <v>0.02312604178608835</v>
       </c>
     </row>
     <row r="30">
@@ -1582,31 +1582,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.03301234151462525</v>
+        <v>0.03343610597349272</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.02274304831822391</v>
+        <v>0.0225642179642446</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.03598608752734221</v>
+        <v>0.03623298584949804</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.0391889274398797</v>
+        <v>0.03849339884572671</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.03540532009956969</v>
+        <v>0.03500640521527052</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.03333207058713388</v>
+        <v>0.03344187071669875</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.03430749489290458</v>
+        <v>0.03396449384356837</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.02693804400646162</v>
+        <v>0.02757179325241267</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.03273421229694996</v>
+        <v>0.03247283202153808</v>
       </c>
     </row>
     <row r="31">
@@ -1839,31 +1839,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1707</v>
+        <v>1744</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>935</v>
+        <v>940</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>5934</v>
+        <v>5964</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2386</v>
+        <v>2193</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>11841</v>
+        <v>11364</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>5636</v>
+        <v>5795</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>5461</v>
+        <v>5522</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>15487</v>
+        <v>14442</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>14654</v>
+        <v>13863</v>
       </c>
     </row>
     <row r="7">
@@ -1874,31 +1874,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>9962</v>
+        <v>10815</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>11988</v>
+        <v>11887</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>20547</v>
+        <v>18760</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>13280</v>
+        <v>14217</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>29757</v>
+        <v>30077</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>19478</v>
+        <v>19853</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>19397</v>
+        <v>19133</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>36344</v>
+        <v>35246</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>33545</v>
+        <v>33132</v>
       </c>
     </row>
     <row r="8">
@@ -1983,31 +1983,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>7407</v>
+        <v>7194</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1919</v>
+        <v>1908</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>4692</v>
+        <v>4661</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>8964</v>
+        <v>8829</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>4062</v>
+        <v>4058</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1993</v>
+        <v>1967</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>18538</v>
+        <v>19348</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>8037</v>
+        <v>8014</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>8166</v>
+        <v>8537</v>
       </c>
     </row>
     <row r="11">
@@ -2018,31 +2018,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>24370</v>
+        <v>22811</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>11032</v>
+        <v>10507</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>18225</v>
+        <v>18064</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>24146</v>
+        <v>24645</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>18323</v>
+        <v>18572</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>11734</v>
+        <v>12016</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>39927</v>
+        <v>42294</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>23228</v>
+        <v>22697</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>26149</v>
+        <v>25952</v>
       </c>
     </row>
     <row r="12">
@@ -2127,31 +2127,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1788</v>
+        <v>1774</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>5220</v>
+        <v>5963</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>4322</v>
+        <v>4443</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>8786</v>
+        <v>9619</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>7251</v>
+        <v>7710</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>2791</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="15">
@@ -2162,31 +2162,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10273</v>
+        <v>10802</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>9074</v>
+        <v>9138</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>8680</v>
+        <v>8738</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>18886</v>
+        <v>18853</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>17012</v>
+        <v>17634</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>10768</v>
+        <v>10818</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>24359</v>
+        <v>24955</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>22106</v>
+        <v>23384</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>14620</v>
+        <v>15462</v>
       </c>
     </row>
     <row r="16">
@@ -2271,31 +2271,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4318</v>
+        <v>4661</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>4883</v>
+        <v>4820</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>14360</v>
+        <v>13605</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>4710</v>
+        <v>4525</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>6640</v>
+        <v>7424</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>11006</v>
+        <v>11832</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>12133</v>
+        <v>12082</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>14834</v>
+        <v>15008</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>29405</v>
+        <v>30385</v>
       </c>
     </row>
     <row r="19">
@@ -2306,31 +2306,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>18973</v>
+        <v>19675</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>19472</v>
+        <v>18573</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>33847</v>
+        <v>34297</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>17577</v>
+        <v>15961</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>22878</v>
+        <v>23932</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>28052</v>
+        <v>29586</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>30484</v>
+        <v>28783</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>34677</v>
+        <v>35052</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>55468</v>
+        <v>55527</v>
       </c>
     </row>
     <row r="20">
@@ -2415,31 +2415,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2524</v>
+        <v>2412</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1793</v>
+        <v>1774</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1835</v>
+        <v>1851</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>960</v>
+        <v>972</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2820</v>
+        <v>2884</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>5562</v>
+        <v>5497</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>2074</v>
+        <v>2690</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>5818</v>
+        <v>5842</v>
       </c>
     </row>
     <row r="23">
@@ -2450,31 +2450,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>12633</v>
+        <v>12555</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>8361</v>
+        <v>8744</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>10001</v>
+        <v>9742</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>9949</v>
+        <v>10632</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>10189</v>
+        <v>10094</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>13116</v>
+        <v>13516</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>18273</v>
+        <v>18210</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>14138</v>
+        <v>14682</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>18836</v>
+        <v>19053</v>
       </c>
     </row>
     <row r="24">
@@ -2559,31 +2559,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>984</v>
+        <v>992</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2070</v>
+        <v>2001</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>4067</v>
+        <v>3935</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1919</v>
+        <v>1873</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>5007</v>
+        <v>4270</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>6868</v>
+        <v>6785</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>2904</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="27">
@@ -2594,31 +2594,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>10321</v>
+        <v>9404</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>9829</v>
+        <v>9760</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>5939</v>
+        <v>6244</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>12817</v>
+        <v>12173</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>16959</v>
+        <v>17291</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>12728</v>
+        <v>11317</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>17414</v>
+        <v>17691</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>21701</v>
+        <v>21220</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>15063</v>
+        <v>14709</v>
       </c>
     </row>
     <row r="28">
@@ -2703,31 +2703,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>5478</v>
+        <v>5388</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>7539</v>
+        <v>7661</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>4774</v>
+        <v>4328</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>15516</v>
+        <v>15533</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>7978</v>
+        <v>7388</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>7968</v>
+        <v>7793</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>23619</v>
+        <v>24123</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>18385</v>
+        <v>18828</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>15980</v>
+        <v>15497</v>
       </c>
     </row>
     <row r="31">
@@ -2738,31 +2738,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>20337</v>
+        <v>18319</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>21947</v>
+        <v>22277</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>18045</v>
+        <v>17538</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>34766</v>
+        <v>35177</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>23113</v>
+        <v>23346</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>23868</v>
+        <v>23872</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>47478</v>
+        <v>48670</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>40600</v>
+        <v>40598</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>36297</v>
+        <v>36338</v>
       </c>
     </row>
     <row r="32">
@@ -2847,31 +2847,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>5579</v>
+        <v>5948</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1110</v>
+        <v>1959</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>7040</v>
+        <v>7412</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>5278</v>
+        <v>4398</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>4069</v>
+        <v>3176</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>5251</v>
+        <v>5034</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>13300</v>
+        <v>12948</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>7280</v>
+        <v>7093</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>14865</v>
+        <v>15948</v>
       </c>
     </row>
     <row r="35">
@@ -2882,31 +2882,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>18450</v>
+        <v>18760</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>14445</v>
+        <v>15365</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>22899</v>
+        <v>22251</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>19558</v>
+        <v>18853</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>15667</v>
+        <v>14777</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>19760</v>
+        <v>20717</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>31263</v>
+        <v>31914</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>23800</v>
+        <v>23162</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>34568</v>
+        <v>35840</v>
       </c>
     </row>
     <row r="36">
@@ -2991,31 +2991,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>49806</v>
+        <v>48637</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>35423</v>
+        <v>35427</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>59956</v>
+        <v>61233</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>70300</v>
+        <v>69123</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>69001</v>
+        <v>69822</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>61366</v>
+        <v>60636</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>128875</v>
+        <v>127782</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>111717</v>
+        <v>111582</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>130553</v>
+        <v>127925</v>
       </c>
     </row>
     <row r="39">
@@ -3026,31 +3026,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>80896</v>
+        <v>81935</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>64516</v>
+        <v>64008</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>95879</v>
+        <v>96537</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>107270</v>
+        <v>105366</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>108701</v>
+        <v>107476</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>95574</v>
+        <v>95888</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>177979</v>
+        <v>176199</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>159120</v>
+        <v>162864</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>181074</v>
+        <v>179628</v>
       </c>
     </row>
     <row r="40">
